--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1741549.916752699</v>
+        <v>1737244.79375563</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283196</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="D2" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>74.99298492937245</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663197</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>172.0188164403314</v>
       </c>
       <c r="H2" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666384</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -743,25 +743,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265844</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846323</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>77.20360760270444</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>32.15006297824946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>52.21594625443417</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2518847340494</v>
+        <v>27.33742136331534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772759999</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425841</v>
+        <v>23.94240680425889</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372552</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149288</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>80.75748343250878</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>46.55582888123241</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>135.7111670171797</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937494</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074759</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843605</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>205.7087218877121</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1065,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>15.22601502247202</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.2957212599128</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304014</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589113</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>150.4595652775124</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1141,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>207.4575008112402</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696038</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>103.3795585858798</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1226,13 +1226,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904879</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721421</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>118.219146033553</v>
+        <v>165.3461923380926</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1296,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>13.84443721704987</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923915</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425542</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>67.7627565034399</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596158</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634798</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710087</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881266</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>21.63824106824998</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710087</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>139.5115415340516</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,13 +1773,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>132.6315337216692</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187878</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881266</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>85.55239810998386</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>172.0260335000785</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457617</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2247,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>16.92025364381849</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2478,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>22.44547853568561</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>110.017717176682</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>130.3963959210117</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>19.86507844888251</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>38.05096575280744</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="36">
@@ -3432,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>136.9649966249137</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3669,16 +3669,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>41.55695577161148</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>240.06330988836</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,7 +3906,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>101.393069766706</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3951,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4030,7 +4030,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4140,16 +4140,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>38.61213096654769</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>672.2420264262245</v>
+        <v>511.8624171433436</v>
       </c>
       <c r="C2" t="n">
-        <v>672.2420264262245</v>
+        <v>322.4426321268588</v>
       </c>
       <c r="D2" t="n">
-        <v>482.8222414097399</v>
+        <v>322.4426321268588</v>
       </c>
       <c r="E2" t="n">
-        <v>407.0717515820909</v>
+        <v>322.4426321268588</v>
       </c>
       <c r="F2" t="n">
-        <v>217.6519665656064</v>
+        <v>315.4971313776553</v>
       </c>
       <c r="G2" t="n">
-        <v>204.4218319897901</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330558</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058962</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079188</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123829</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.484525998558</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020258</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652789</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262245</v>
+        <v>672.2420264262255</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262245</v>
+        <v>511.8624171433436</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262245</v>
+        <v>511.8624171433436</v>
       </c>
       <c r="U2" t="n">
-        <v>672.2420264262245</v>
+        <v>511.8624171433436</v>
       </c>
       <c r="V2" t="n">
-        <v>672.2420264262245</v>
+        <v>511.8624171433436</v>
       </c>
       <c r="W2" t="n">
-        <v>672.2420264262245</v>
+        <v>511.8624171433436</v>
       </c>
       <c r="X2" t="n">
-        <v>672.2420264262245</v>
+        <v>511.8624171433436</v>
       </c>
       <c r="Y2" t="n">
-        <v>672.2420264262245</v>
+        <v>511.8624171433436</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>476.2476595172182</v>
+        <v>90.03616812153781</v>
       </c>
       <c r="C3" t="n">
-        <v>476.2476595172182</v>
+        <v>90.03616812153781</v>
       </c>
       <c r="D3" t="n">
-        <v>327.3132498559669</v>
+        <v>90.03616812153781</v>
       </c>
       <c r="E3" t="n">
-        <v>168.0757948505114</v>
+        <v>90.03616812153781</v>
       </c>
       <c r="F3" t="n">
-        <v>168.0757948505114</v>
+        <v>90.03616812153781</v>
       </c>
       <c r="G3" t="n">
-        <v>30.53661367296056</v>
+        <v>90.03616812153781</v>
       </c>
       <c r="H3" t="n">
-        <v>30.53661367296056</v>
+        <v>90.03616812153781</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296056</v>
+        <v>30.53661367296054</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024202</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772647</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140239</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546596</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476342</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017055</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652789</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264271</v>
+        <v>676.9378076264281</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264271</v>
+        <v>525.6547321810244</v>
       </c>
       <c r="T3" t="n">
-        <v>676.9378076264271</v>
+        <v>447.6712901580906</v>
       </c>
       <c r="U3" t="n">
-        <v>676.9378076264271</v>
+        <v>447.6712901580906</v>
       </c>
       <c r="V3" t="n">
-        <v>676.9378076264271</v>
+        <v>447.6712901580906</v>
       </c>
       <c r="W3" t="n">
-        <v>676.9378076264271</v>
+        <v>258.2515051416058</v>
       </c>
       <c r="X3" t="n">
-        <v>676.9378076264271</v>
+        <v>258.2515051416058</v>
       </c>
       <c r="Y3" t="n">
-        <v>644.4629965372862</v>
+        <v>258.2515051416058</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.7454270282896</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230169</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170704</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396313</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O4" t="n">
-        <v>67.7454270282896</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P4" t="n">
-        <v>67.7454270282896</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.7454270282896</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="R4" t="n">
-        <v>67.7454270282896</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="S4" t="n">
-        <v>67.7454270282896</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="T4" t="n">
-        <v>67.7454270282896</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="U4" t="n">
-        <v>67.7454270282896</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="V4" t="n">
-        <v>67.7454270282896</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="W4" t="n">
-        <v>67.7454270282896</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X4" t="n">
-        <v>67.7454270282896</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.7454270282896</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>551.7154484413649</v>
+        <v>766.2490595983356</v>
       </c>
       <c r="C5" t="n">
-        <v>551.7154484413649</v>
+        <v>766.2490595983356</v>
       </c>
       <c r="D5" t="n">
-        <v>551.7154484413649</v>
+        <v>766.2490595983356</v>
       </c>
       <c r="E5" t="n">
-        <v>551.7154484413649</v>
+        <v>380.4608070000914</v>
       </c>
       <c r="F5" t="n">
-        <v>544.7699476921614</v>
+        <v>373.5153062508879</v>
       </c>
       <c r="G5" t="n">
-        <v>128.3539025062529</v>
+        <v>345.9017493182462</v>
       </c>
       <c r="H5" t="n">
-        <v>128.3539025062529</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675794</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="J5" t="n">
-        <v>111.670553901723</v>
+        <v>111.6705539017223</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166747005</v>
+        <v>277.9807166746986</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030808</v>
+        <v>521.2049416030782</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709246</v>
+        <v>823.5081935709202</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582761</v>
+        <v>1135.316836582755</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.41363507925</v>
+        <v>1416.413635079243</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.82224833277</v>
+        <v>1621.822248332762</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837897</v>
+        <v>1727.902815837888</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.718566540666</v>
+        <v>1703.718566540657</v>
       </c>
       <c r="S5" t="n">
-        <v>1562.810726301014</v>
+        <v>1703.718566540657</v>
       </c>
       <c r="T5" t="n">
-        <v>1350.95139143745</v>
+        <v>1703.718566540657</v>
       </c>
       <c r="U5" t="n">
-        <v>1269.378175849057</v>
+        <v>1450.08060221202</v>
       </c>
       <c r="V5" t="n">
-        <v>938.3152885054867</v>
+        <v>1119.01771486845</v>
       </c>
       <c r="W5" t="n">
-        <v>938.3152885054867</v>
+        <v>766.2490595983356</v>
       </c>
       <c r="X5" t="n">
-        <v>938.3152885054867</v>
+        <v>766.2490595983356</v>
       </c>
       <c r="Y5" t="n">
-        <v>938.3152885054867</v>
+        <v>766.2490595983356</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>568.1965811617802</v>
+        <v>654.2649371506317</v>
       </c>
       <c r="C6" t="n">
-        <v>521.1704913827575</v>
+        <v>479.8119078695047</v>
       </c>
       <c r="D6" t="n">
-        <v>521.1704913827575</v>
+        <v>330.8774982082534</v>
       </c>
       <c r="E6" t="n">
-        <v>361.933036377302</v>
+        <v>171.6400432027979</v>
       </c>
       <c r="F6" t="n">
-        <v>215.398478404187</v>
+        <v>171.6400432027979</v>
       </c>
       <c r="G6" t="n">
-        <v>78.31649151814678</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="H6" t="n">
-        <v>78.31649151814678</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675794</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787614</v>
+        <v>61.66788464787557</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806081</v>
+        <v>186.1577239806069</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171190009</v>
+        <v>399.8722171189988</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223547</v>
+        <v>668.6238185223515</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352541</v>
+        <v>958.8971200352498</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228326</v>
+        <v>1202.220686228321</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639517</v>
+        <v>1378.176233639511</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906559</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="R6" t="n">
-        <v>1401.100270703784</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="S6" t="n">
-        <v>1258.309378699379</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="T6" t="n">
-        <v>1258.309378699379</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="U6" t="n">
-        <v>1030.194236654936</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="V6" t="n">
-        <v>1030.194236654936</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="W6" t="n">
-        <v>775.956879926734</v>
+        <v>1238.092073141186</v>
       </c>
       <c r="X6" t="n">
-        <v>775.956879926734</v>
+        <v>1030.240572935654</v>
       </c>
       <c r="Y6" t="n">
-        <v>568.1965811617802</v>
+        <v>822.4802741706997</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>180.5556931379226</v>
+        <v>369.8190495858017</v>
       </c>
       <c r="C7" t="n">
-        <v>180.5556931379226</v>
+        <v>369.8190495858017</v>
       </c>
       <c r="D7" t="n">
-        <v>180.5556931379226</v>
+        <v>369.8190495858017</v>
       </c>
       <c r="E7" t="n">
-        <v>180.5556931379226</v>
+        <v>369.8190495858017</v>
       </c>
       <c r="F7" t="n">
-        <v>180.5556931379226</v>
+        <v>354.4392364317896</v>
       </c>
       <c r="G7" t="n">
-        <v>180.5556931379226</v>
+        <v>186.1337093305555</v>
       </c>
       <c r="H7" t="n">
-        <v>180.5556931379226</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="I7" t="n">
-        <v>65.10546964306111</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675794</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574775</v>
+        <v>64.24066662574714</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584131</v>
+        <v>132.129986158412</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347995</v>
+        <v>206.9680378347979</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195398</v>
+        <v>287.8841338195376</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934756</v>
+        <v>342.3101561934728</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858049</v>
+        <v>369.8190495858017</v>
       </c>
       <c r="Q7" t="n">
-        <v>332.5350520040967</v>
+        <v>369.8190495858017</v>
       </c>
       <c r="R7" t="n">
-        <v>332.5350520040967</v>
+        <v>369.8190495858017</v>
       </c>
       <c r="S7" t="n">
-        <v>180.5556931379226</v>
+        <v>369.8190495858017</v>
       </c>
       <c r="T7" t="n">
-        <v>180.5556931379226</v>
+        <v>369.8190495858017</v>
       </c>
       <c r="U7" t="n">
-        <v>180.5556931379226</v>
+        <v>369.8190495858017</v>
       </c>
       <c r="V7" t="n">
-        <v>180.5556931379226</v>
+        <v>369.8190495858017</v>
       </c>
       <c r="W7" t="n">
-        <v>180.5556931379226</v>
+        <v>369.8190495858017</v>
       </c>
       <c r="X7" t="n">
-        <v>180.5556931379226</v>
+        <v>369.8190495858017</v>
       </c>
       <c r="Y7" t="n">
-        <v>180.5556931379226</v>
+        <v>369.8190495858017</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1335.127537179187</v>
+        <v>338.8208663664108</v>
       </c>
       <c r="C8" t="n">
-        <v>1335.127537179187</v>
+        <v>338.8208663664108</v>
       </c>
       <c r="D8" t="n">
-        <v>1335.127537179187</v>
+        <v>338.8208663664108</v>
       </c>
       <c r="E8" t="n">
-        <v>949.3392845809428</v>
+        <v>338.8208663664108</v>
       </c>
       <c r="F8" t="n">
-        <v>538.3533797913353</v>
+        <v>331.8753656172074</v>
       </c>
       <c r="G8" t="n">
         <v>122.3223344947425</v>
@@ -4801,22 +4801,22 @@
         <v>122.3223344947425</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301905</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232725</v>
+        <v>366.8168396232722</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711881</v>
+        <v>669.5878927711877</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.148464578732</v>
+        <v>1038.148464578731</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135169</v>
+        <v>1417.286540135168</v>
       </c>
       <c r="O8" t="n">
         <v>1761.960612545599</v>
@@ -4825,31 +4825,31 @@
         <v>2021.63095817245</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642787</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="T8" t="n">
-        <v>1826.151173794703</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="U8" t="n">
-        <v>1826.151173794703</v>
+        <v>1782.718007305297</v>
       </c>
       <c r="V8" t="n">
-        <v>1826.151173794703</v>
+        <v>1451.655119961727</v>
       </c>
       <c r="W8" t="n">
-        <v>1721.727377243309</v>
+        <v>1098.886464691612</v>
       </c>
       <c r="X8" t="n">
-        <v>1721.727377243309</v>
+        <v>725.4207064305326</v>
       </c>
       <c r="Y8" t="n">
-        <v>1721.727377243309</v>
+        <v>725.4207064305326</v>
       </c>
     </row>
     <row r="9">
@@ -4859,31 +4859,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>376.1487741961587</v>
+        <v>525.9940904859269</v>
       </c>
       <c r="C9" t="n">
-        <v>376.1487741961587</v>
+        <v>351.5410612047999</v>
       </c>
       <c r="D9" t="n">
-        <v>376.1487741961587</v>
+        <v>202.6066515435487</v>
       </c>
       <c r="E9" t="n">
-        <v>216.9113191907032</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="F9" t="n">
-        <v>216.9113191907032</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="G9" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="H9" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562341</v>
+        <v>89.55356510562342</v>
       </c>
       <c r="K9" t="n">
         <v>246.6448318504524</v>
@@ -4907,28 +4907,28 @@
         <v>1766.227047333489</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972667</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="S9" t="n">
-        <v>1595.273638474385</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="T9" t="n">
-        <v>1400.563316948361</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="U9" t="n">
-        <v>1281.15003812659</v>
+        <v>1599.210691436426</v>
       </c>
       <c r="V9" t="n">
-        <v>1045.997929894847</v>
+        <v>1364.058583204683</v>
       </c>
       <c r="W9" t="n">
-        <v>791.7605731666455</v>
+        <v>1109.821226476482</v>
       </c>
       <c r="X9" t="n">
-        <v>583.9090729611127</v>
+        <v>901.9697262709487</v>
       </c>
       <c r="Y9" t="n">
-        <v>376.1487741961587</v>
+        <v>694.2094275059949</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>229.8397121443264</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="C10" t="n">
-        <v>229.8397121443264</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="D10" t="n">
-        <v>229.8397121443264</v>
+        <v>506.3050670233782</v>
       </c>
       <c r="E10" t="n">
-        <v>229.8397121443264</v>
+        <v>358.3919734409851</v>
       </c>
       <c r="F10" t="n">
-        <v>229.8397121443264</v>
+        <v>211.5020259430748</v>
       </c>
       <c r="G10" t="n">
-        <v>61.70688273934479</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="H10" t="n">
-        <v>61.70688273934479</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="I10" t="n">
-        <v>61.70688273934479</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="K10" t="n">
         <v>92.71685897981547</v>
@@ -4983,31 +4983,31 @@
         <v>520.2893470406003</v>
       </c>
       <c r="Q10" t="n">
-        <v>497.4664265514534</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="R10" t="n">
-        <v>429.0191977601</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="S10" t="n">
-        <v>229.8397121443264</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="T10" t="n">
-        <v>229.8397121443264</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="U10" t="n">
-        <v>229.8397121443264</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="V10" t="n">
-        <v>229.8397121443264</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="W10" t="n">
-        <v>229.8397121443264</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="X10" t="n">
-        <v>229.8397121443264</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="Y10" t="n">
-        <v>229.8397121443264</v>
+        <v>520.2893470406003</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5032,49 +5032,49 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756265</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756265</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021781</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756785</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2020.349486996071</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2443.972636491139</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>430.7826650753335</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>282.8695714929404</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,13 +5351,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
         <v>577.3880777468471</v>
@@ -5366,13 +5366,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589157</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589157</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2222.001901828444</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>554.5813165460164</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C16" t="n">
-        <v>385.6451336181095</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D16" t="n">
-        <v>235.5284942057738</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E16" t="n">
-        <v>235.5284942057738</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168622</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
         <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>776.17510664033</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266882</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>869.9745311434716</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>701.0383482155647</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>550.921708803229</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>2273.199413378161</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1500.405126015259</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="20">
@@ -5746,58 +5746,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075824</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>94.56320294380356</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>244.2098454714582</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>244.2098454714582</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>739.5354516872168</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>724.7519863413023</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1127.193030315072</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>906.400451171542</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5983,19 +5983,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6010,31 +6010,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>870.3164745246296</v>
+        <v>513.8536007400676</v>
       </c>
       <c r="C25" t="n">
-        <v>847.644273983533</v>
+        <v>513.8536007400676</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>513.8536007400676</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>513.8536007400676</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6165,34 +6165,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W25" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X25" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138374</v>
       </c>
       <c r="Y25" t="n">
-        <v>1051.964939354869</v>
+        <v>695.5020655703073</v>
       </c>
     </row>
     <row r="26">
@@ -6229,16 +6229,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>409.1360811687896</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>916.2946447138411</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>747.3584617859342</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>597.2418223735984</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>449.3287287912053</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>449.3287287912053</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6429,7 +6429,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,31 +6484,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>572.9069687101817</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>422.7903292978459</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>422.7903292978459</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6663,10 +6663,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6682,13 +6682,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6703,16 +6703,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6931,25 +6931,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,13 +6958,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>631.5645865368208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>481.447947124485</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>481.447947124485</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>481.447947124485</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>314.251847839365</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7268,13 +7268,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.7825789706076</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C40" t="n">
-        <v>391.8463960427007</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D40" t="n">
-        <v>241.729756630365</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797187</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W40" t="n">
-        <v>1191.213173842395</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X40" t="n">
-        <v>963.2236229443774</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.4310438008473</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="41">
@@ -7393,13 +7393,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7411,13 +7411,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1053.171308869725</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>884.2351259418183</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>734.1184865294825</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
         <v>631.7012443408906</v>
@@ -7599,22 +7599,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1683.601903741512</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>1455.612352843495</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>1234.819773699965</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7730,25 +7730,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>724.7519863413023</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2407.960931088798</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2188.359466111739</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1899.284239455937</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1644.59975125005</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1355.182581213089</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1127.193030315072</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>906.400451171542</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>123.7828069546813</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>8.952838470577262e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>40.32043864788571</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>32.89260457059964</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23898,13 +23898,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>60.88156453658532</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>114.1584408891656</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>208.7894017452187</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>144.8013425629422</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>35.40333084624929</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>35.12774237125717</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>125.5559695740487</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>180.5336875992874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>3.329716221310235</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25557,16 +25557,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>103.8640922513198</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>45.04089287986319</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25839,16 +25839,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.4141550350969</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>882931.1937920644</v>
+        <v>882931.1937920646</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>882931.1937920646</v>
+        <v>882931.1937920643</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>882931.1937920644</v>
+        <v>882931.1937920643</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>882931.1937920646</v>
+        <v>882931.1937920644</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>882931.1937920646</v>
+        <v>882931.1937920644</v>
       </c>
     </row>
     <row r="14">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583915</v>
+      </c>
+      <c r="C2" t="n">
         <v>554203.1946583913</v>
       </c>
-      <c r="C2" t="n">
-        <v>554203.1946583912</v>
-      </c>
       <c r="D2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="E2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="F2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="G2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="H2" t="n">
         <v>544823.9547907538</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>544823.9547907537</v>
       </c>
-      <c r="G2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="K2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="L2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="M2" t="n">
         <v>544823.9547907537</v>
       </c>
-      <c r="I2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="J2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="K2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="L2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.9547907539</v>
-      </c>
       <c r="N2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="O2" t="n">
         <v>544823.954790754</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208452</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253162</v>
+        <v>270592.3620253134</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231906</v>
+        <v>115410.054023193</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742639</v>
+        <v>601443.2075742644</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765882058</v>
+        <v>62913.63765881988</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197433</v>
+        <v>27875.25362197492</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515976</v>
+        <v>157146.3805515978</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,31 +26420,31 @@
         <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263453</v>
+        <v>206604.422926346</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888975</v>
+        <v>174202.9900888974</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189192</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189192</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189192</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189193</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189204</v>
+        <v>16046.58397189192</v>
       </c>
       <c r="J4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189204</v>
       </c>
       <c r="L4" t="n">
         <v>16046.58397189197</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161356</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936843</v>
+        <v>76435.73471936825</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587231</v>
+        <v>85199.08185587233</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-372676.0731081974</v>
       </c>
       <c r="C6" t="n">
-        <v>570.6749873613298</v>
+        <v>570.6749873636581</v>
       </c>
       <c r="D6" t="n">
-        <v>179391.068690431</v>
+        <v>179391.0686904289</v>
       </c>
       <c r="E6" t="n">
-        <v>-173788.3665793092</v>
+        <v>-174135.7458336665</v>
       </c>
       <c r="F6" t="n">
-        <v>427654.8409949546</v>
+        <v>427307.461740598</v>
       </c>
       <c r="G6" t="n">
-        <v>427654.8409949548</v>
+        <v>427307.461740598</v>
       </c>
       <c r="H6" t="n">
-        <v>427654.8409949546</v>
+        <v>427307.4617405978</v>
       </c>
       <c r="I6" t="n">
-        <v>427654.8409949546</v>
+        <v>427307.4617405978</v>
       </c>
       <c r="J6" t="n">
-        <v>378589.8962664101</v>
+        <v>378242.5170120532</v>
       </c>
       <c r="K6" t="n">
-        <v>364741.2033361343</v>
+        <v>364393.8240817778</v>
       </c>
       <c r="L6" t="n">
-        <v>399779.5873729806</v>
+        <v>399432.2081186228</v>
       </c>
       <c r="M6" t="n">
-        <v>270508.4604433572</v>
+        <v>270161.0811889998</v>
       </c>
       <c r="N6" t="n">
-        <v>427654.8409949546</v>
+        <v>427307.461740598</v>
       </c>
       <c r="O6" t="n">
-        <v>427654.8409949549</v>
+        <v>427307.4617405979</v>
       </c>
       <c r="P6" t="n">
-        <v>427654.8409949546</v>
+        <v>427307.4617405977</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129043</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950643</v>
+        <v>758.8996292950624</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376849</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594742</v>
+        <v>431.975703959472</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261641</v>
+        <v>542.1149567261642</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129043</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>210.42968838216</v>
+        <v>210.4296883821578</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262062</v>
+        <v>94.81103524262255</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039886</v>
+        <v>514.2648358039891</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931545</v>
+        <v>244.450116793152</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666899</v>
+        <v>110.1392527666923</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734838</v>
+        <v>630.5933313734844</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931545</v>
+        <v>244.4501167931518</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666899</v>
+        <v>110.1392527666923</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734836</v>
+        <v>630.5933313734844</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931545</v>
+        <v>244.450116793152</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666899</v>
+        <v>110.1392527666923</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734838</v>
+        <v>630.5933313734844</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046876</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543632</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>306.9373851428893</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753917</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>241.0790167897266</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399026</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199748</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
@@ -27463,22 +27463,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409151</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,10 +27508,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>118.2059901892968</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
@@ -27520,13 +27520,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459965</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>173.5326327990549</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>115.0308748441937</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27560,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825421</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402857</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709392</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159729</v>
+        <v>16.47009429716283</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>384.914463370734</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714734</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>92.85788772760029</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372554</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>170.3441012528409</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>126.1526701070833</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246125</v>
+        <v>96.4703783524613</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.32085084937509</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,25 +27742,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074785</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
         <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>45.9862612732075</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27785,19 +27785,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>130.1950330004592</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6224718302218</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.0598964836597</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.24193919304039</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>36.91115760589143</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166222</v>
+        <v>115.7603165166223</v>
       </c>
       <c r="S7" t="n">
-        <v>49.70767883554777</v>
+        <v>200.1672441130602</v>
       </c>
       <c r="T7" t="n">
         <v>222.0983299894507</v>
@@ -27861,13 +27861,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>204.4132340323866</v>
       </c>
       <c r="H8" t="n">
         <v>304.326804756183</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>245.8614101315333</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27931,13 +27931,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -27946,13 +27946,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
         <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904879</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721421</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>107.6014279345155</v>
+        <v>60.47438162997594</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28016,13 +28016,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>134.7710358011625</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923915</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425542</v>
       </c>
       <c r="R10" t="n">
-        <v>40.31009476219863</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
         <v>221.3678187343026</v>
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-1.133261760295336e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28329,7 +28329,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-1.133261760295336e-12</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-1.133261760295336e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29040,7 +29040,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29237,7 +29237,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>-3.758651504979533e-12</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043116</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528638</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672891</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470022</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622678</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244293</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151091</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
         <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924575</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31123,46 +31123,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590849</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
         <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975328</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292672</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628871</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550072</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288819</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820367</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390159</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445815</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620012</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.7432551563916</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.9254218111419</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784856</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647908</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181393</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0539478630406136</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085683</v>
+        <v>3.050852781085676</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429376</v>
+        <v>31.24454604429368</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428059</v>
+        <v>117.6180018428056</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286712</v>
+        <v>258.9373162286706</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520283</v>
+        <v>388.0799144520273</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511794</v>
+        <v>481.4474502511782</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968119</v>
+        <v>535.7030533968106</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610717</v>
+        <v>544.3712888610702</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191508</v>
+        <v>514.0343715191495</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860979</v>
+        <v>438.7164434860968</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634668</v>
+        <v>329.457778263466</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098737</v>
+        <v>191.6431310098732</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774899008</v>
+        <v>69.5213077489899</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920259</v>
+        <v>13.35510804920255</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868546</v>
+        <v>0.244068222486854</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030893</v>
+        <v>1.632350146030889</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403521</v>
+        <v>15.76506588403517</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062506</v>
+        <v>56.20152915062491</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475942</v>
+        <v>154.2212916475938</v>
       </c>
       <c r="K6" t="n">
-        <v>263.588751431664</v>
+        <v>263.5887514316634</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721902</v>
+        <v>354.4276051721893</v>
       </c>
       <c r="M6" t="n">
-        <v>413.60029796581</v>
+        <v>413.6002979658089</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468681</v>
+        <v>424.5470671468671</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374467</v>
+        <v>388.3776244374457</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872501</v>
+        <v>311.7072835872493</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547505</v>
+        <v>208.36806425475</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632164</v>
+        <v>101.3488976632161</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947731</v>
+        <v>30.32018801947724</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378904</v>
+        <v>6.579516597378888</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757167</v>
+        <v>0.1073914569757164</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528237001</v>
+        <v>1.368507528236998</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377989</v>
+        <v>12.16727602377986</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734546</v>
+        <v>41.15475366734536</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635597</v>
+        <v>96.75348224635572</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260806</v>
+        <v>158.9956928260802</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162538</v>
+        <v>203.4597465162533</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399146</v>
+        <v>214.5197755399141</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528496</v>
+        <v>209.4189747528491</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275355</v>
+        <v>193.432318627535</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650515005</v>
+        <v>165.5147650515001</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235547</v>
+        <v>114.5938440235544</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054732</v>
+        <v>61.53307486054717</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391209</v>
+        <v>23.84935392391203</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830821</v>
+        <v>5.847259438830807</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656378</v>
+        <v>0.07464586517656359</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>250.1723312270676</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>468.377827851028</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>339.3493584601599</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>100.2764607028603</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32575,16 +32575,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,46 +32624,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>456.3459017226598</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33271,19 +33271,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>248.0319961154043</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,7 +33760,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,7 +33997,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34386,7 +34386,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34450,10 +34450,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>637.8521160493917</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538867967</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788321</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973019</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504113</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405811</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915973</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065964</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781461</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
         <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755145</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848227</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855685</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.6094444076499</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646072</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061146</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520818</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400467</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198496</v>
+        <v>77.89141170198428</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070477</v>
+        <v>167.9900634070468</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811921</v>
+        <v>245.6810352811909</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695392</v>
+        <v>305.3568201695379</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644807</v>
+        <v>314.9582252644793</v>
       </c>
       <c r="O5" t="n">
-        <v>283.936160097464</v>
+        <v>283.9361600974628</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308284</v>
+        <v>207.4834477308273</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890173</v>
+        <v>107.1520883890165</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092748</v>
+        <v>27.38366498092708</v>
       </c>
       <c r="K6" t="n">
-        <v>125.747312457305</v>
+        <v>125.7473124573044</v>
       </c>
       <c r="L6" t="n">
-        <v>215.873225392316</v>
+        <v>215.8732253923151</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437917</v>
+        <v>271.4662640437906</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635349</v>
+        <v>293.2053550635337</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930023</v>
+        <v>245.7813799930013</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729199</v>
+        <v>177.7328761729191</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.386290168729</v>
+        <v>68.38629016872846</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554526</v>
+        <v>29.98243465554484</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501552</v>
+        <v>68.575070235015</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230955</v>
+        <v>75.59399159230901</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761639</v>
+        <v>81.73343028761587</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569268</v>
+        <v>54.97578017569217</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235288</v>
+        <v>27.78676100235245</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.1905571410461</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>334.4034204366978</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>200.7949786802858</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7540807028603055</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36533,7 +36533,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066212</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>318.5044627483008</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36919,19 +36919,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>110.1905571410453</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38034,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38098,10 +38098,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>499.2977362695175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1737244.79375563</v>
+        <v>1739005.324058415</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283192</v>
+        <v>416855.105228318</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>116.8405921356976</v>
       </c>
       <c r="C2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G2" t="n">
-        <v>172.0188164403314</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -746,22 +746,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>43.08554925202538</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
         <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>77.20360760270444</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.21594625443443</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>27.33742136331534</v>
+        <v>412.2518847340494</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714735</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425889</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372556</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1015846853496</v>
+        <v>0.8502570911528323</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -986,10 +986,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7111670171797</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>43.1332670986785</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>205.7087218877121</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>16.04608921950983</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>15.22601502247202</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6224718302218</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.0598964836597</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4575008112402</v>
+        <v>275.3018338701292</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708287</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1223,7 +1223,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>20.27697994470635</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>165.3461923380926</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>9.085774025512624</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>13.84443721704987</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634798</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710087</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1423,7 +1423,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1539,13 +1539,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>21.63824106824998</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>22.44547853568606</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710087</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>132.6315337216692</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>103.7802572945519</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187878</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1897,10 +1897,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881266</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>85.55239810998386</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>212.4076860934771</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T20" t="n">
-        <v>199.022230457617</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2329,10 +2329,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>110.017717176682</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>41.02686156550273</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>35.66650366117387</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>29.24923305751745</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3669,16 +3669,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>41.55695577161148</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>55.52079624060465</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>55.5207962406087</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4137,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>103.8784673763408</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>99.97427419833815</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>511.8624171433436</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="C2" t="n">
-        <v>322.4426321268588</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="D2" t="n">
-        <v>322.4426321268588</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="E2" t="n">
-        <v>322.4426321268588</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="F2" t="n">
-        <v>315.4971313776553</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678495</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079186</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
         <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985584</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020265</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262255</v>
+        <v>672.2420264262254</v>
       </c>
       <c r="S2" t="n">
-        <v>511.8624171433436</v>
+        <v>511.8624171433435</v>
       </c>
       <c r="T2" t="n">
-        <v>511.8624171433436</v>
+        <v>511.8624171433435</v>
       </c>
       <c r="U2" t="n">
-        <v>511.8624171433436</v>
+        <v>511.8624171433435</v>
       </c>
       <c r="V2" t="n">
-        <v>511.8624171433436</v>
+        <v>511.8624171433435</v>
       </c>
       <c r="W2" t="n">
-        <v>511.8624171433436</v>
+        <v>511.8624171433435</v>
       </c>
       <c r="X2" t="n">
-        <v>511.8624171433436</v>
+        <v>511.8624171433435</v>
       </c>
       <c r="Y2" t="n">
-        <v>511.8624171433436</v>
+        <v>511.8624171433435</v>
       </c>
     </row>
     <row r="3">
@@ -4385,31 +4385,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>90.03616812153781</v>
+        <v>525.6547321810242</v>
       </c>
       <c r="C3" t="n">
-        <v>90.03616812153781</v>
+        <v>525.6547321810242</v>
       </c>
       <c r="D3" t="n">
-        <v>90.03616812153781</v>
+        <v>525.6547321810242</v>
       </c>
       <c r="E3" t="n">
-        <v>90.03616812153781</v>
+        <v>366.4172771755687</v>
       </c>
       <c r="F3" t="n">
-        <v>90.03616812153781</v>
+        <v>219.8827192024537</v>
       </c>
       <c r="G3" t="n">
-        <v>90.03616812153781</v>
+        <v>176.361962382226</v>
       </c>
       <c r="H3" t="n">
-        <v>90.03616812153781</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296054</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
         <v>67.13418877024208</v>
@@ -4427,34 +4427,34 @@
         <v>649.2101578476349</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017064</v>
+        <v>739.5989987017063</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264281</v>
+        <v>676.9378076264279</v>
       </c>
       <c r="S3" t="n">
-        <v>525.6547321810244</v>
+        <v>525.6547321810242</v>
       </c>
       <c r="T3" t="n">
-        <v>447.6712901580906</v>
+        <v>525.6547321810242</v>
       </c>
       <c r="U3" t="n">
-        <v>447.6712901580906</v>
+        <v>525.6547321810242</v>
       </c>
       <c r="V3" t="n">
-        <v>447.6712901580906</v>
+        <v>525.6547321810242</v>
       </c>
       <c r="W3" t="n">
-        <v>258.2515051416058</v>
+        <v>525.6547321810242</v>
       </c>
       <c r="X3" t="n">
-        <v>258.2515051416058</v>
+        <v>525.6547321810242</v>
       </c>
       <c r="Y3" t="n">
-        <v>258.2515051416058</v>
+        <v>525.6547321810242</v>
       </c>
     </row>
     <row r="4">
@@ -4464,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="C4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
         <v>27.03967056230176</v>
@@ -4509,31 +4509,31 @@
         <v>67.74542702828987</v>
       </c>
       <c r="Q4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="X4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>766.2490595983356</v>
+        <v>1212.670371790525</v>
       </c>
       <c r="C5" t="n">
-        <v>766.2490595983356</v>
+        <v>843.7078548501138</v>
       </c>
       <c r="D5" t="n">
-        <v>766.2490595983356</v>
+        <v>843.7078548501138</v>
       </c>
       <c r="E5" t="n">
-        <v>380.4608070000914</v>
+        <v>457.9196022518695</v>
       </c>
       <c r="F5" t="n">
-        <v>373.5153062508879</v>
+        <v>450.974101502666</v>
       </c>
       <c r="G5" t="n">
-        <v>345.9017493182462</v>
+        <v>34.55805631675753</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675753</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675753</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017223</v>
+        <v>111.6705539017212</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746986</v>
+        <v>277.9807166746963</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030782</v>
+        <v>521.2049416030736</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709202</v>
+        <v>823.508193570914</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582755</v>
+        <v>1135.316836582747</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079243</v>
+        <v>1416.413635079233</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332762</v>
+        <v>1621.822248332751</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837888</v>
+        <v>1727.902815837876</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.718566540657</v>
+        <v>1727.902815837876</v>
       </c>
       <c r="S5" t="n">
-        <v>1703.718566540657</v>
+        <v>1586.994975598224</v>
       </c>
       <c r="T5" t="n">
-        <v>1703.718566540657</v>
+        <v>1586.994975598224</v>
       </c>
       <c r="U5" t="n">
-        <v>1450.08060221202</v>
+        <v>1586.136130051605</v>
       </c>
       <c r="V5" t="n">
-        <v>1119.01771486845</v>
+        <v>1586.136130051605</v>
       </c>
       <c r="W5" t="n">
-        <v>766.2490595983356</v>
+        <v>1586.136130051605</v>
       </c>
       <c r="X5" t="n">
-        <v>766.2490595983356</v>
+        <v>1212.670371790525</v>
       </c>
       <c r="Y5" t="n">
-        <v>766.2490595983356</v>
+        <v>1212.670371790525</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>654.2649371506317</v>
+        <v>489.2644789565793</v>
       </c>
       <c r="C6" t="n">
-        <v>479.8119078695047</v>
+        <v>489.2644789565793</v>
       </c>
       <c r="D6" t="n">
-        <v>330.8774982082534</v>
+        <v>340.330069295328</v>
       </c>
       <c r="E6" t="n">
-        <v>171.6400432027979</v>
+        <v>181.0926142898726</v>
       </c>
       <c r="F6" t="n">
-        <v>171.6400432027979</v>
+        <v>34.55805631675753</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675753</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675753</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675753</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787557</v>
+        <v>61.66788464787486</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806069</v>
+        <v>186.1577239806053</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189988</v>
+        <v>399.8722171189962</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223515</v>
+        <v>668.6238185223476</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352498</v>
+        <v>958.8971200352446</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228321</v>
+        <v>1202.220686228315</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639511</v>
+        <v>1378.176233639504</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906552</v>
+        <v>1445.878660906544</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.878660906552</v>
+        <v>1445.878660906544</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.878660906552</v>
+        <v>1402.309704241212</v>
       </c>
       <c r="T6" t="n">
-        <v>1445.878660906552</v>
+        <v>1206.769085960967</v>
       </c>
       <c r="U6" t="n">
-        <v>1445.878660906552</v>
+        <v>978.6539439165235</v>
       </c>
       <c r="V6" t="n">
-        <v>1445.878660906552</v>
+        <v>743.5018356847809</v>
       </c>
       <c r="W6" t="n">
-        <v>1238.092073141186</v>
+        <v>489.2644789565793</v>
       </c>
       <c r="X6" t="n">
-        <v>1030.240572935654</v>
+        <v>489.2644789565793</v>
       </c>
       <c r="Y6" t="n">
-        <v>822.4802741706997</v>
+        <v>489.2644789565793</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.8190495858017</v>
+        <v>353.6108786570002</v>
       </c>
       <c r="C7" t="n">
-        <v>369.8190495858017</v>
+        <v>184.6746957290933</v>
       </c>
       <c r="D7" t="n">
-        <v>369.8190495858017</v>
+        <v>34.55805631675753</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8190495858017</v>
+        <v>34.55805631675753</v>
       </c>
       <c r="F7" t="n">
-        <v>354.4392364317896</v>
+        <v>34.55805631675753</v>
       </c>
       <c r="G7" t="n">
-        <v>186.1337093305555</v>
+        <v>34.55805631675753</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675753</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675753</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675753</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574714</v>
+        <v>64.24066662574644</v>
       </c>
       <c r="L7" t="n">
-        <v>132.129986158412</v>
+        <v>132.1299861584107</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347979</v>
+        <v>206.9680378347959</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195376</v>
+        <v>287.884133819535</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934728</v>
+        <v>342.3101561934696</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858017</v>
+        <v>369.819049585798</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495858017</v>
+        <v>369.819049585798</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495858017</v>
+        <v>369.819049585798</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495858017</v>
+        <v>369.819049585798</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495858017</v>
+        <v>369.819049585798</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8190495858017</v>
+        <v>369.819049585798</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8190495858017</v>
+        <v>369.819049585798</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8190495858017</v>
+        <v>369.819049585798</v>
       </c>
       <c r="X7" t="n">
-        <v>369.8190495858017</v>
+        <v>369.819049585798</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.8190495858017</v>
+        <v>369.819049585798</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>338.8208663664108</v>
+        <v>1055.625573309337</v>
       </c>
       <c r="C8" t="n">
-        <v>338.8208663664108</v>
+        <v>686.663056368925</v>
       </c>
       <c r="D8" t="n">
-        <v>338.8208663664108</v>
+        <v>328.3973577621745</v>
       </c>
       <c r="E8" t="n">
-        <v>338.8208663664108</v>
+        <v>328.3973577621745</v>
       </c>
       <c r="F8" t="n">
-        <v>331.8753656172074</v>
+        <v>321.4518570129711</v>
       </c>
       <c r="G8" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232722</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711877</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.148464578731</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135168</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545599</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.63095817245</v>
+        <v>2021.630958172446</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642788</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="T8" t="n">
-        <v>2036.325171642788</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="U8" t="n">
-        <v>1782.718007305297</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="V8" t="n">
-        <v>1451.655119961727</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="W8" t="n">
-        <v>1098.886464691612</v>
+        <v>1815.691171634538</v>
       </c>
       <c r="X8" t="n">
-        <v>725.4207064305326</v>
+        <v>1442.225413373458</v>
       </c>
       <c r="Y8" t="n">
-        <v>725.4207064305326</v>
+        <v>1442.225413373458</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>525.9940904859269</v>
+        <v>672.5286484590418</v>
       </c>
       <c r="C9" t="n">
-        <v>351.5410612047999</v>
+        <v>498.0756191779149</v>
       </c>
       <c r="D9" t="n">
-        <v>202.6066515435487</v>
+        <v>349.1412095166636</v>
       </c>
       <c r="E9" t="n">
-        <v>43.36919653809314</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562342</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504524</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104403</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789501</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.885386873582</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128148</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689049</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333489</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333489</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S9" t="n">
-        <v>1766.227047333489</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="T9" t="n">
-        <v>1766.227047333489</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="U9" t="n">
-        <v>1599.210691436426</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="V9" t="n">
-        <v>1364.058583204683</v>
+        <v>1510.593141177798</v>
       </c>
       <c r="W9" t="n">
-        <v>1109.821226476482</v>
+        <v>1256.355784449597</v>
       </c>
       <c r="X9" t="n">
-        <v>901.9697262709487</v>
+        <v>1048.504284244064</v>
       </c>
       <c r="Y9" t="n">
-        <v>694.2094275059949</v>
+        <v>840.7439854791098</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.2893470406003</v>
+        <v>488.2888770307322</v>
       </c>
       <c r="C10" t="n">
-        <v>520.2893470406003</v>
+        <v>488.2888770307322</v>
       </c>
       <c r="D10" t="n">
-        <v>506.3050670233782</v>
+        <v>338.1722376183965</v>
       </c>
       <c r="E10" t="n">
-        <v>358.3919734409851</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="F10" t="n">
-        <v>211.5020259430748</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981547</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018946</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927338</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377469</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O10" t="n">
-        <v>472.309103603367</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470406003</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470406003</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470406003</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470406003</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470406003</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470406003</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470406003</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="W10" t="n">
-        <v>520.2893470406003</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="X10" t="n">
-        <v>520.2893470406003</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.2893470406003</v>
+        <v>497.4664265514521</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5035,46 +5035,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245705</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876693</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C13" t="n">
-        <v>580.8993044876693</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>430.7826650753335</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>282.8695714929404</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2424.290883039164</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2241.436048694068</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2021.834583717009</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1732.759357061207</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1478.07486885532</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1478.07486885532</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614391</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.547769317909</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5275,10 +5275,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075811</v>
@@ -5305,25 +5305,25 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>983.3556038098242</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C16" t="n">
-        <v>814.4194208819173</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D16" t="n">
-        <v>664.3027814695815</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="E16" t="n">
-        <v>516.3896878871884</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="F16" t="n">
-        <v>369.499740389278</v>
+        <v>447.9280084069479</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>280.7319091218279</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5466,22 +5466,22 @@
         <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.963083580261</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U16" t="n">
-        <v>2157.887856924459</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V16" t="n">
-        <v>1903.203368718572</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W16" t="n">
-        <v>1613.786198681611</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X16" t="n">
-        <v>1385.796647783594</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y16" t="n">
-        <v>1165.004068640064</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168622</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5603,10 +5603,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869.9745311434716</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C19" t="n">
-        <v>701.0383482155647</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>550.921708803229</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.405126015259</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.415575117241</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.622995973711</v>
+        <v>929.7309773356194</v>
       </c>
     </row>
     <row r="20">
@@ -5752,34 +5752,34 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075824</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
         <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5840,10 +5840,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5892,19 +5892,19 @@
         <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
@@ -5968,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400676</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400676</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400676</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>513.8536007400676</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487564</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510505</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854702</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648815</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611855</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138374</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703073</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="26">
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6317,16 +6317,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>984.5772922261136</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>815.6411092982067</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>454.6048385560544</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="32">
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,37 +6949,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,52 +7162,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327643</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>594.8179559048574</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>444.7013164925216</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E40" t="n">
-        <v>444.7013164925216</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806534</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.402603663004</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7393,52 +7393,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,28 +7484,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7627,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,28 +7660,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123003</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,28 +7721,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8007783998286</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>123.7828069546813</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>43.9297681744356</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>8.952838470577262e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>32.89260457059964</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>36.51445555167197</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>60.88156453658532</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>13.30196929556007</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>35.40333084624929</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.9994244361419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>112.9489693570385</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>117.1847295890517</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>103.8640922513198</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>10.85445046951701</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>125.5054897610359</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>63.36835372228708</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>882931.1937920646</v>
+        <v>882931.1937920644</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>882931.1937920643</v>
+        <v>882931.1937920644</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>882931.1937920643</v>
+        <v>882931.1937920644</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>882931.1937920644</v>
+        <v>882931.1937920646</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>882931.1937920646</v>
+        <v>882931.1937920644</v>
       </c>
     </row>
     <row r="16">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="E2" t="n">
         <v>544823.9547907539</v>
@@ -26328,34 +26328,34 @@
         <v>544823.954790754</v>
       </c>
       <c r="G2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="H2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="I2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="J2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="H2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="I2" t="n">
-        <v>544823.9547907537</v>
-      </c>
-      <c r="J2" t="n">
-        <v>544823.9547907538</v>
-      </c>
       <c r="K2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907545</v>
       </c>
       <c r="L2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="M2" t="n">
-        <v>544823.9547907537</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="N2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="O2" t="n">
         <v>544823.9547907541</v>
       </c>
-      <c r="O2" t="n">
-        <v>544823.954790754</v>
-      </c>
       <c r="P2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907544</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253134</v>
+        <v>270592.3620253103</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.054023193</v>
+        <v>115410.0540231949</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742644</v>
+        <v>601443.2075742653</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854453</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881988</v>
+        <v>62913.63765881921</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197492</v>
+        <v>27875.25362197534</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515978</v>
+        <v>157146.3805515981</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,31 +26420,31 @@
         <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.422926346</v>
+        <v>206604.4229263468</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888974</v>
+        <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189192</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189192</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189192</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189192</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189204</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
         <v>16046.58397189197</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936825</v>
+        <v>76435.73471936802</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587233</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-372676.0731081974</v>
+        <v>-372676.0731081975</v>
       </c>
       <c r="C6" t="n">
-        <v>570.6749873636581</v>
+        <v>570.6749873661029</v>
       </c>
       <c r="D6" t="n">
-        <v>179391.0686904289</v>
+        <v>179391.0686904266</v>
       </c>
       <c r="E6" t="n">
-        <v>-174135.7458336665</v>
+        <v>-173823.1045047462</v>
       </c>
       <c r="F6" t="n">
-        <v>427307.461740598</v>
+        <v>427620.1030695192</v>
       </c>
       <c r="G6" t="n">
-        <v>427307.461740598</v>
+        <v>427620.1030695194</v>
       </c>
       <c r="H6" t="n">
-        <v>427307.4617405978</v>
+        <v>427620.1030695193</v>
       </c>
       <c r="I6" t="n">
-        <v>427307.4617405978</v>
+        <v>427620.1030695193</v>
       </c>
       <c r="J6" t="n">
-        <v>378242.5170120532</v>
+        <v>378555.1583409747</v>
       </c>
       <c r="K6" t="n">
-        <v>364393.8240817778</v>
+        <v>364706.4654107005</v>
       </c>
       <c r="L6" t="n">
-        <v>399432.2081186228</v>
+        <v>399744.8494475437</v>
       </c>
       <c r="M6" t="n">
-        <v>270161.0811889998</v>
+        <v>270473.722517921</v>
       </c>
       <c r="N6" t="n">
-        <v>427307.461740598</v>
+        <v>427620.1030695194</v>
       </c>
       <c r="O6" t="n">
-        <v>427307.4617405979</v>
+        <v>427620.1030695193</v>
       </c>
       <c r="P6" t="n">
-        <v>427307.4617405977</v>
+        <v>427620.1030695195</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950624</v>
+        <v>758.89962929506</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376849</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>431.975703959472</v>
+        <v>431.9757039594691</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261642</v>
+        <v>542.1149567261631</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26962,13 +26962,13 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821578</v>
+        <v>210.4296883821554</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262255</v>
+        <v>94.81103524262414</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039891</v>
+        <v>514.2648358039899</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>244.450116793152</v>
+        <v>244.4501167931492</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666923</v>
+        <v>110.139252766694</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734844</v>
+        <v>630.5933313734853</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931518</v>
+        <v>244.4501167931492</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666923</v>
+        <v>110.139252766694</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734844</v>
+        <v>630.5933313734855</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>244.450116793152</v>
+        <v>244.4501167931492</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666923</v>
+        <v>110.139252766694</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734844</v>
+        <v>630.5933313734853</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>265.8932495277829</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046876</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>219.3504585753915</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0790167897266</v>
+        <v>225.5722460637381</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27466,22 +27466,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>93.07824011374996</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27511,7 +27511,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>118.2059901892968</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
@@ -27520,7 +27520,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459965</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>93.20510176849682</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
@@ -27581,7 +27581,7 @@
         <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>16.47009429716283</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>384.914463370734</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760029</v>
+        <v>92.85788772760066</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425949</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372554</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149288</v>
+        <v>209.7407415149289</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.2513275941968</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27706,16 +27706,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.4703783524613</v>
+        <v>96.47037835246135</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937509</v>
+        <v>43.32085084937526</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074785</v>
+        <v>44.33060630074816</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>98.22971598568218</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>45.9862612732075</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>163.7858909624275</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>130.1950330004592</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.2957212599129</v>
+        <v>114.2957212599131</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304039</v>
+        <v>30.24193919304069</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589143</v>
+        <v>36.91115760589179</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166223</v>
+        <v>115.7603165166225</v>
       </c>
       <c r="S7" t="n">
-        <v>200.1672441130602</v>
+        <v>200.1672441130603</v>
       </c>
       <c r="T7" t="n">
         <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2443834913143</v>
+        <v>286.2443834913144</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>204.4132340323866</v>
+        <v>136.5689009734976</v>
       </c>
       <c r="H8" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696038</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27943,16 +27943,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470352</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185511</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904879</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721421</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>117.2980339485929</v>
       </c>
       <c r="T9" t="n">
         <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>60.47438162997594</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>170.7462061564247</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>134.7710358011625</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
         <v>148.5398113612452</v>
@@ -28034,7 +28034,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923915</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425542</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656385</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596158</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
         <v>221.3678187343026</v>
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.133261760295336e-12</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28329,7 +28329,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.133261760295336e-12</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.133261760295336e-12</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29237,7 +29237,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>-3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -30513,7 +30513,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30659,7 +30659,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085676</v>
+        <v>3.050852781085666</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429368</v>
+        <v>31.24454604429359</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428056</v>
+        <v>117.6180018428053</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286706</v>
+        <v>258.9373162286698</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520273</v>
+        <v>388.0799144520261</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511782</v>
+        <v>481.4474502511766</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968106</v>
+        <v>535.7030533968089</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610702</v>
+        <v>544.3712888610685</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191495</v>
+        <v>514.034371519148</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860968</v>
+        <v>438.7164434860954</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.457778263466</v>
+        <v>329.4577782634649</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098732</v>
+        <v>191.6431310098726</v>
       </c>
       <c r="S5" t="n">
-        <v>69.5213077489899</v>
+        <v>69.52130774898968</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920255</v>
+        <v>13.35510804920251</v>
       </c>
       <c r="U5" t="n">
-        <v>0.244068222486854</v>
+        <v>0.2440682224868532</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030889</v>
+        <v>1.632350146030884</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403517</v>
+        <v>15.76506588403512</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062491</v>
+        <v>56.20152915062474</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475938</v>
+        <v>154.2212916475933</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316634</v>
+        <v>263.5887514316625</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721893</v>
+        <v>354.4276051721882</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658089</v>
+        <v>413.6002979658076</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468671</v>
+        <v>424.5470671468657</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374457</v>
+        <v>388.3776244374445</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872493</v>
+        <v>311.7072835872484</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.36806425475</v>
+        <v>208.3680642547493</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632161</v>
+        <v>101.3488976632158</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947724</v>
+        <v>30.32018801947714</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378888</v>
+        <v>6.579516597378867</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757164</v>
+        <v>0.1073914569757161</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236998</v>
+        <v>1.368507528236993</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377986</v>
+        <v>12.16727602377982</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734536</v>
+        <v>41.15475366734523</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635572</v>
+        <v>96.75348224635542</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260802</v>
+        <v>158.9956928260797</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162533</v>
+        <v>203.4597465162527</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399141</v>
+        <v>214.5197755399134</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528491</v>
+        <v>209.4189747528484</v>
       </c>
       <c r="O7" t="n">
-        <v>193.432318627535</v>
+        <v>193.4323186275344</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650515001</v>
+        <v>165.5147650514996</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235544</v>
+        <v>114.5938440235541</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054717</v>
+        <v>61.53307486054698</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391203</v>
+        <v>23.84935392391196</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830807</v>
+        <v>5.847259438830788</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656359</v>
+        <v>0.07464586517656335</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508279</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958417</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>132.312282993323</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>291.286936740926</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258715</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840431</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934784</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839013</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190909</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662302</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928398</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141321</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699498</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>15.0235916945275</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206622</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175398</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464134</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>63.2229124209512</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076064</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>296.519486191358</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616801</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730382</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152847</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884509</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475635</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349508</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867497</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053861</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>7.40151038405785</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062762</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526973</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619437</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017479</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>108.841112100157</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490428</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368738</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282508</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420141</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595398</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099894</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451904</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153095</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735641</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978882</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419861</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31843,10 +31843,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>175.6052721551105</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>248.7449369209194</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
@@ -31858,7 +31858,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32323,13 +32323,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32560,13 +32560,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593843</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>426.9501404413636</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33049,16 +33049,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,22 +33265,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>349.3304751113899</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,22 +33502,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>513.0745614164387</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,22 +33739,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>513.0745614164387</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,22 +33976,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>513.0745614164387</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,22 +34213,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>513.0745614164387</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,22 +34450,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>513.0745614164387</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198428</v>
+        <v>77.89141170198349</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070468</v>
+        <v>167.9900634070456</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811909</v>
+        <v>245.6810352811894</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695379</v>
+        <v>305.3568201695361</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644793</v>
+        <v>314.9582252644776</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974628</v>
+        <v>283.9361600974612</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308273</v>
+        <v>207.4834477308259</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890165</v>
+        <v>107.1520883890155</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092708</v>
+        <v>27.3836649809266</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573044</v>
+        <v>125.7473124573035</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923151</v>
+        <v>215.873225392314</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437906</v>
+        <v>271.4662640437893</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635337</v>
+        <v>293.2053550635324</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930013</v>
+        <v>245.7813799930001</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729191</v>
+        <v>177.7328761729181</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872846</v>
+        <v>68.38629016872781</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554484</v>
+        <v>29.98243465554435</v>
       </c>
       <c r="L7" t="n">
-        <v>68.575070235015</v>
+        <v>68.57507023501438</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230901</v>
+        <v>75.59399159230833</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761587</v>
+        <v>81.73343028761519</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569217</v>
+        <v>54.97578017569157</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235245</v>
+        <v>27.78676100235194</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142397</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>216.473758780891</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140559</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662057</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873104</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974042</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109607</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.3119886183904</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.65087734093967</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
-        <v>158.678047216999</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>260.152662181806</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510199</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319514</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>294.3022689440065</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332333</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892929</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850741</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563548</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806457</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767809</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769702</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084182</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35491,10 +35491,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>37.76383318075146</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35506,7 +35506,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35971,13 +35971,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36208,13 +36208,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795101</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066212</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>211.4890361370309</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,19 +37153,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>374.5201816365645</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,19 +37390,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>374.5201816365645</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,19 +37627,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>374.5201816365645</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,19 +37864,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>374.5201816365645</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,25 +37937,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066292</v>
       </c>
       <c r="Q43" t="n">
         <v>120.4022572998984</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,19 +38101,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>374.5201816365645</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
